--- a/biology/Biochimie/Uridine_diphosphate_N-acétylglucosamine/Uridine_diphosphate_N-acétylglucosamine.xlsx
+++ b/biology/Biochimie/Uridine_diphosphate_N-acétylglucosamine/Uridine_diphosphate_N-acétylglucosamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Uridine_diphosphate_N-ac%C3%A9tylglucosamine</t>
+          <t>Uridine_diphosphate_N-acétylglucosamine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’uridine diphosphate N-acétylglucosamine, souvent abrégée en UDP-GlcNAc, est un nucléotide-ose intervenant également comme coenzyme dans le métabolisme cellulaire. C'est une source de N-acétyl-D-glucosamine pour les glycosyltransférases. La D-glucosamine est produite naturellement sous forme de glucosamine-6-phosphate et est le précurseur de toutes les osamines[2]. Plus précisément, la glucosamine-6-phosphate est synthétisée à partir du fructose-6-phosphate et de la glutamine comme première étape de la biosynthèse des hexosamines, dont la dernière étape conduit à l'UDP-GlcNAc. Celle-ci est alors utilisée pour produire des glycosaminoglycanes, des protéoglycanes et des glycolipides.
+L’uridine diphosphate N-acétylglucosamine, souvent abrégée en UDP-GlcNAc, est un nucléotide-ose intervenant également comme coenzyme dans le métabolisme cellulaire. C'est une source de N-acétyl-D-glucosamine pour les glycosyltransférases. La D-glucosamine est produite naturellement sous forme de glucosamine-6-phosphate et est le précurseur de toutes les osamines. Plus précisément, la glucosamine-6-phosphate est synthétisée à partir du fructose-6-phosphate et de la glutamine comme première étape de la biosynthèse des hexosamines, dont la dernière étape conduit à l'UDP-GlcNAc. Celle-ci est alors utilisée pour produire des glycosaminoglycanes, des protéoglycanes et des glycolipides.
 </t>
         </is>
       </c>
